--- a/数据表/pack.xlsx
+++ b/数据表/pack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>FixedRewards</t>
+  </si>
+  <si>
+    <t>RandomQuantity</t>
+  </si>
+  <si>
+    <t>RandomRewards</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>//礼包id</t>
   </si>
   <si>
@@ -48,27 +69,6 @@
   </si>
   <si>
     <t>随机物品根据权重随机出一定种类的物品（id，最小数量，最大数量，权重）</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>FixedRewards</t>
-  </si>
-  <si>
-    <t>RandomQuantity</t>
-  </si>
-  <si>
-    <t>RandomRewards</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1008,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="1" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
@@ -1023,57 +1022,57 @@
     <col min="8" max="8" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
